--- a/xlsx/政府预算_intext.xlsx
+++ b/xlsx/政府预算_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_政府预算</t>
+    <t>立法机关</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_政府预算</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8E%E6%94%B6</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E7%A8%85</t>
   </si>
   <si>
-    <t>公司稅</t>
+    <t>公司税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%A2%84%E7%AE%97</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
